--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E7F9B-ED26-40DB-A01D-5219A622FD90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2FE1F-9F1E-4AA3-B5E6-0A7376930C74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="20520" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="20520" windowHeight="13040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登陆" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -504,13 +500,13 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -533,10 +529,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -550,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -620,13 +616,13 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -649,10 +645,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2FE1F-9F1E-4AA3-B5E6-0A7376930C74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E8819-75E7-4741-989F-4820C5AF8176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="20520" windowHeight="13040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="20520" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登陆" sheetId="1" r:id="rId1"/>
@@ -95,15 +95,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name": "znbm", "pwd":"123"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name": "znbm"}</t>
+    <t>{"name": "root", "pwd":"123"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "root"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -503,10 +503,10 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -619,10 +619,10 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E8819-75E7-4741-989F-4820C5AF8176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668230A9-5E3C-4586-A1FA-556632AB0889}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="20520" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登陆" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>{"name": "root"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,109 +441,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="7" max="7" width="34.25" customWidth="1"/>
-    <col min="9" max="9" width="8.9140625" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="8" max="8" width="34.25" customWidth="1"/>
+    <col min="10" max="10" width="8.9140625" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668230A9-5E3C-4586-A1FA-556632AB0889}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BE9D0D-4DE8-4041-9A79-4A6BCD11935B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,29 @@
   <si>
     <t>登出</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "#username#", "pwd":"#password#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/eds/logout/{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "操作成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "操作成功"}</t>
   </si>
 </sst>
 </file>
@@ -444,7 +467,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -521,7 +544,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -541,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -565,110 +591,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BE9D0D-4DE8-4041-9A79-4A6BCD11935B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2724E3A4-FBFC-4909-A1A8-165659F62AF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name": "#username#", "pwd":"#password#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/eds/logout/{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,15 +127,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#id#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"code": 0, "msg": "操作成功"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"code": 0, "msg": "操作成功"}</t>
+  </si>
+  <si>
+    <t>{"name": "&lt;username&gt;", "pwd":"&lt;password&gt;"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取响应值中的某个字段的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口响应超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -182,8 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -476,11 +499,15 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.25" customWidth="1"/>
     <col min="8" max="8" width="34.25" customWidth="1"/>
-    <col min="10" max="10" width="8.9140625" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.4140625" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,23 +532,32 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -544,16 +580,25 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -567,19 +612,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -591,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -603,12 +651,14 @@
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
-    <col min="10" max="10" width="10.08203125" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="19.08203125" customWidth="1"/>
+    <col min="9" max="9" width="15.4140625" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.08203125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,23 +683,32 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -674,11 +733,14 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -703,7 +765,10 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2724E3A4-FBFC-4909-A1A8-165659F62AF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22336B-0229-4F49-8BE3-F08A54ADAFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/eds/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/eds/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/eds/logout/{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +147,58 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ati/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ati/logout/{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ati/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ati/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/asdf.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image/jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件类型（字段名）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -502,17 +542,17 @@
     <col min="9" max="9" width="15.4140625" customWidth="1"/>
     <col min="10" max="11" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" customWidth="1"/>
-    <col min="14" max="14" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="13" max="16" width="12.58203125" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -533,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -547,22 +587,31 @@
       <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -571,63 +620,107 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -654,16 +747,17 @@
     <col min="9" max="9" width="15.4140625" customWidth="1"/>
     <col min="10" max="11" width="11.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.08203125" customWidth="1"/>
-    <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="19.08203125" customWidth="1"/>
+    <col min="14" max="16" width="12.58203125" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -684,13 +778,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -698,22 +792,31 @@
       <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -722,30 +825,30 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -754,22 +857,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22336B-0229-4F49-8BE3-F08A54ADAFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B739D-E6F2-4704-892B-4FAFFFBE0A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,22 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取响应值中的某个字段的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口响应超时时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件上传格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +183,26 @@
   </si>
   <si>
     <t>上传文件类型（字段名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":{"type": "sub","value": 2}, "score": {"type": "new", "value": 99}, "username":{"type": "replace", "value":"baidu"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新变量（在接口请求之前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名（存放获取到的字段的值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取响应值中的某个字段的值(多层嵌套的用英文逗号隔开)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -542,12 +546,12 @@
     <col min="9" max="9" width="15.4140625" customWidth="1"/>
     <col min="10" max="11" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="16" width="12.58203125" customWidth="1"/>
-    <col min="17" max="17" width="12.75" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="13" max="17" width="12.58203125" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,13 +577,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -588,25 +592,28 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -620,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -632,10 +639,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -646,11 +653,14 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -664,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -681,25 +691,25 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -708,19 +718,19 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -732,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -752,7 +762,7 @@
     <col min="18" max="18" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,13 +788,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -793,25 +803,28 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -825,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -843,7 +856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -857,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B739D-E6F2-4704-892B-4FAFFFBE0A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51056312-E99B-43ED-B16B-04AA9F539223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>获取响应值中的某个字段的值(多层嵌套的用英文逗号隔开)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Accept-Encoding": "gzip, deflate"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -546,12 +554,12 @@
     <col min="9" max="9" width="15.4140625" customWidth="1"/>
     <col min="10" max="11" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="17" width="12.58203125" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="13" max="18" width="12.58203125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,17 +611,20 @@
       <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -660,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -695,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -731,6 +742,9 @@
       </c>
       <c r="Q4" t="s">
         <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -742,10 +756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B7483-14EA-4B9B-ABD2-0491CE6B9FC0}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -758,11 +772,11 @@
     <col min="10" max="11" width="11.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.08203125" customWidth="1"/>
     <col min="14" max="16" width="12.58203125" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" customWidth="1"/>
+    <col min="17" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,17 +828,20 @@
       <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -856,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
